--- a/impact_beliefs/CarbonBeliefsBackground.xlsx
+++ b/impact_beliefs/CarbonBeliefsBackground.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frauke/GithubRepoTree/impact_beliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D9D0A9-8033-924F-B6AF-5E1BB23CA371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49ED89-66EF-2E43-9ADE-B457473B287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="16420" windowHeight="16220" xr2:uid="{8311C192-006F-EB48-91C7-364D899D6793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22060" windowHeight="16220" xr2:uid="{8311C192-006F-EB48-91C7-364D899D6793}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Carbon Beliefs</t>
   </si>
@@ -90,24 +90,10 @@
     <t>the full range of studies are available in the online supplementary materials available at stacks.iop.org/ERL/12/074024/mmedia)</t>
   </si>
   <si>
-    <t>Attari (12) claims 4KWh are saved per load with washer set to colder temperatures. With 289 loads per year in the average US household (13) and grid intensity of 0.562kg/KWh (14), and household occupancy of 2.63 (15) this action saves 0.247 tCO2e per year.</t>
-  </si>
-  <si>
-    <t>Attari (12) also claims 3.4KWh are saved by air drying clothing, which following the steps above and assuming the same number of dryer loads as washing loads suggests savings of 0.210 tCO2e per year.
-Each load of laundry that is dried by hanging instead of by tumble drying saves 3kg of CO2 per load (16). The average UK household uses 165 loads per year (13) resulting in 495kg . Divided by average household size (2.3) (17) results in 0.215 tCO2e saved per year per person.</t>
-  </si>
-  <si>
-    <t>Green Energy
-To calculate the typical emissions saved by purchasing green power in the United States, we used the average purchase size in MWh of a residential customer (6, 5, and 4 MWh depending on the market type)(21). These values were entered into the EPA’s Green Power Equivalency Calculator (22) using the national average emissions rate, with each outcome divided by the average number of members per household (2.63) (15). Calculations are based on the assumption that each MWh of green energy generates no GHG emissions.</t>
-  </si>
-  <si>
     <t>New York to London (5576 km). Flight data is based on an average of values found by carbon calculators, with radiative forcing applied when the option was given.</t>
   </si>
   <si>
     <t>Representative scenarios which were used to create the mean value lines in Figure 1 are shown here in blue.</t>
-  </si>
-  <si>
-    <t>From Omnivore to vegan</t>
   </si>
   <si>
     <t>13. Pakula C &amp; Stamminger R (2010) Electricity and water consumption for laundry washing by washing machine worldwide. Energy Efficiency 3(4):365-382.</t>
@@ -139,17 +125,84 @@
     </r>
   </si>
   <si>
-    <t>based on some average occupancy (see appendix)</t>
-  </si>
-  <si>
     <t>11. Murtaugh PA &amp; Schlax MG (2009) Reproduction and the carbon legacies of individuals. Global Environmental Change 19(1):14-20.</t>
+  </si>
+  <si>
+    <t>TAKE UK Values wherever possible</t>
+  </si>
+  <si>
+    <t>avg distance pers vehicle km</t>
+  </si>
+  <si>
+    <t>occupancy</t>
+  </si>
+  <si>
+    <t>1,666</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>kg emissios</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>emissions per mile according to our footprint calculator (in tonnes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in kg </t>
+  </si>
+  <si>
+    <t>1000 miles</t>
+  </si>
+  <si>
+    <t>15,000 miles</t>
+  </si>
+  <si>
+    <t>12,000 km/year</t>
+  </si>
+  <si>
+    <t>took emission factor from the carbon footprint calculator: 0.275 kg co2 per mile; average annual mileague UK = 8000</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Carbonindependent.org</t>
+  </si>
+  <si>
+    <t>Seth Wynes and Kimberly A Nicholas 2017 Environ. Res. Lett. 12 074024 Appendix 1</t>
+  </si>
+  <si>
+    <t>co2_fac_ele = 0.000309
+avg_ele_kwh = 4800
+sav_ele_ren = 0.25  # how much could be saved by switching to green energy
+# CALCULATION
+self.avg_ele_co2 = round(avg_ele_kwh * avg_ele_ren * co2_fac_ele * 100) / 100</t>
+  </si>
+  <si>
+    <t>From Omnivore to vegan (avg uk consumption levels are 2.2 kg dairy a week, 1.2 kg meat); impact is average from Wynes, Nicholas</t>
+  </si>
+  <si>
+    <t>Attari (12) claims 4KWh are saved per load when changing washer temperature settings from “hot wash, warm rinse” to “warm wash, cold rinse”. With 165 loads per year in the average UK household (13) and grid intensity of 0.562kg/KWh (14).</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0301421512010531#f0005</t>
+  </si>
+  <si>
+    <t>Average 24 fittings per home</t>
+  </si>
+  <si>
+    <t>Attari (12) also claims 3.4KWh are saved by air drying clothing, which following the steps above and assuming the same number of dryer loads as washing loads suggests savings of 0.315 tCO2e per year.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +248,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF323232"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,23 +286,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5279F768-82DA-E246-A427-5BD48E916F60}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,42 +638,48 @@
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -617,19 +695,29 @@
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <f>8000*0.275</f>
+        <v>2200</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -637,21 +725,34 @@
         <v>1600</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(4800*0.000309*0.25*100,2)/100*1000</f>
+        <v>370.79999999999995</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -659,21 +760,31 @@
         <v>800</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>247</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <f>4*165*0.562</f>
+        <v>370.92</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -684,59 +795,187 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>210</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <f>165*3.4*0.562</f>
+        <v>315.28200000000004</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>12714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>AVERAGE(23.7,34.3,117.7)</f>
         <v>58.566666666666663</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>AVERAGE(3.04,2.1,2.2,2.04,1.44,3.08)</f>
         <v>2.3166666666666669</v>
+      </c>
+      <c r="C38">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f>C36/C38</f>
+        <v>8098.0891719745223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>10000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <f>0.6213711922</f>
+        <v>0.62137119220000003</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43">
+        <f>F43*D43</f>
+        <v>6213.7119220000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f>0.0143/52</f>
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <f>H43*C44</f>
+        <v>1.7087707785500001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f>C44*1000</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="E47" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f>1000*C46</f>
+        <v>275</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f>C46*5000</f>
+        <v>1375</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>8000*C46</f>
+        <v>2200</v>
+      </c>
+      <c r="E50">
+        <f>12000*F43</f>
+        <v>7456.4543064</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f>72.727*C46</f>
+        <v>19.999925000000001</v>
+      </c>
+      <c r="D53">
+        <f>50/C46</f>
+        <v>181.81818181818181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D8:E8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1" location="f0005" xr:uid="{1437B10A-1549-D349-B085-937D921FB06C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/impact_beliefs/CarbonBeliefsBackground.xlsx
+++ b/impact_beliefs/CarbonBeliefsBackground.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frauke/GithubRepoTree/impact_beliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49ED89-66EF-2E43-9ADE-B457473B287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E3D1F5-A159-D045-A807-4071302FBCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22060" windowHeight="16220" xr2:uid="{8311C192-006F-EB48-91C7-364D899D6793}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Carbon Beliefs</t>
   </si>
@@ -72,13 +72,7 @@
     <t>Wash clothes in cold water</t>
   </si>
   <si>
-    <t>Recycle your waste</t>
-  </si>
-  <si>
     <t>Air-dry clothes</t>
-  </si>
-  <si>
-    <t>Use LED-bulbs at home</t>
   </si>
   <si>
     <t>household and vehicular actions were divided by the average household or vehicle occupancy of the country where the study was performed to yield results measured in tonnes of CO2 equivalent per year (tCO2e per year) per individual.</t>
@@ -131,39 +125,6 @@
     <t>TAKE UK Values wherever possible</t>
   </si>
   <si>
-    <t>avg distance pers vehicle km</t>
-  </si>
-  <si>
-    <t>occupancy</t>
-  </si>
-  <si>
-    <t>1,666</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>kg emissios</t>
-  </si>
-  <si>
-    <t>miles</t>
-  </si>
-  <si>
-    <t>emissions per mile according to our footprint calculator (in tonnes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in kg </t>
-  </si>
-  <si>
-    <t>1000 miles</t>
-  </si>
-  <si>
-    <t>15,000 miles</t>
-  </si>
-  <si>
-    <t>12,000 km/year</t>
-  </si>
-  <si>
     <t>took emission factor from the carbon footprint calculator: 0.275 kg co2 per mile; average annual mileague UK = 8000</t>
   </si>
   <si>
@@ -189,12 +150,6 @@
     <t>Attari (12) claims 4KWh are saved per load when changing washer temperature settings from “hot wash, warm rinse” to “warm wash, cold rinse”. With 165 loads per year in the average UK household (13) and grid intensity of 0.562kg/KWh (14).</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0301421512010531#f0005</t>
-  </si>
-  <si>
-    <t>Average 24 fittings per home</t>
-  </si>
-  <si>
     <t>Attari (12) also claims 3.4KWh are saved by air drying clothing, which following the steps above and assuming the same number of dryer loads as washing loads suggests savings of 0.315 tCO2e per year.</t>
   </si>
 </sst>
@@ -202,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +217,13 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -290,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -299,12 +261,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5279F768-82DA-E246-A427-5BD48E916F60}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,32 +614,32 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -684,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -696,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -707,14 +670,14 @@
         <v>2200</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <f>8000*0.275</f>
         <v>2200</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -725,13 +688,13 @@
         <v>1600</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1600</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,15 +704,15 @@
       <c r="B12">
         <v>370</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D12">
         <f>ROUND(4800*0.000309*0.25*100,2)/100*1000</f>
         <v>370.79999999999995</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -760,10 +723,10 @@
         <v>800</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -774,207 +737,69 @@
         <v>370</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <f>4*165*0.562</f>
         <v>370.92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>212.5</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
         <v>315</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16">
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
         <f>165*3.4*0.562</f>
         <v>315.28200000000004</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C36">
-        <v>12714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f>AVERAGE(23.7,34.3,117.7)</f>
-        <v>58.566666666666663</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f>AVERAGE(3.04,2.1,2.2,2.04,1.44,3.08)</f>
-        <v>2.3166666666666669</v>
-      </c>
-      <c r="C38">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C40">
-        <f>C36/C38</f>
-        <v>8098.0891719745223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43">
-        <v>10000</v>
-      </c>
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43">
-        <f>0.6213711922</f>
-        <v>0.62137119220000003</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43">
-        <f>F43*D43</f>
-        <v>6213.7119220000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44">
-        <f>0.0143/52</f>
-        <v>2.7500000000000002E-4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44">
-        <f>H43*C44</f>
-        <v>1.7087707785500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C46">
-        <f>C44*1000</f>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="E47" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <f>1000*C46</f>
-        <v>275</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49">
-        <f>C46*5000</f>
-        <v>1375</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50">
-        <f>8000*C46</f>
-        <v>2200</v>
-      </c>
-      <c r="E50">
-        <f>12000*F43</f>
-        <v>7456.4543064</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <f>72.727*C46</f>
-        <v>19.999925000000001</v>
-      </c>
-      <c r="D53">
-        <f>50/C46</f>
-        <v>181.81818181818181</v>
-      </c>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="46" spans="5:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" location="f0005" xr:uid="{1437B10A-1549-D349-B085-937D921FB06C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
